--- a/prototypes.xlsx
+++ b/prototypes.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
